--- a/biology/Microbiologie/Mycobacterium_ulcerans/Mycobacterium_ulcerans.xlsx
+++ b/biology/Microbiologie/Mycobacterium_ulcerans/Mycobacterium_ulcerans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mycobacterium ulcerans est la bactérie responsable de l'ulcère de Buruli appelé aussi Mbasu, une infection nécrosante des tissus sains survenant surtout aux membres inférieurs par une petite plaie infectée. Elle se présente sous plusieurs formes suivant son degré d'évolution : nodules, plaques ou ulcères ouverts.
 Cette maladie est présente surtout dans les régions tropicales, notamment en Afrique centrale, mais également en Asie ou en Australie. Elle a été décrite pour la première fois en 1897 en Ouganda par Sir Albert Cook.
